--- a/Selenium/app/CSharp_Reports_2022-06-29.xlsx
+++ b/Selenium/app/CSharp_Reports_2022-06-29.xlsx
@@ -1,40 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pliki pulpit\Projekty\Magisterka\SpaceStation_Magisterka\Selenium\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Add Report_07.33.31" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Assign Report_07.33.38" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Add Report_13.14.53" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Assign Report_13.15.00" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Change report status to in progress_13.15.01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Change report status to in finished_13.15.02" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Add and cancel report_13.15.05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Add Report_07.33.31" sheetId="1" r:id="rId1"/>
+    <sheet name="Assign Report_07.33.38" sheetId="2" r:id="rId2"/>
+    <sheet name="Change report status to in prog" sheetId="5" r:id="rId3"/>
+    <sheet name="Change report status to in fini" sheetId="6" r:id="rId4"/>
+    <sheet name="Add and cancel report_13.15.05" sheetId="7" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +69,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,44 +371,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1656488007.730377</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1656488011.259501</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.52912449836731</v>
       </c>
     </row>
@@ -461,44 +406,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1656488007.730377</v>
       </c>
-      <c r="B2" t="n">
-        <v>1656488018.135863</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1656488018.1358631</v>
+      </c>
+      <c r="C2">
         <v>10.40548658370972</v>
       </c>
     </row>
@@ -508,45 +441,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1656508489.650179</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1656508493.803488</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.153309106826782</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656508489.6501789</v>
+      </c>
+      <c r="B2">
+        <v>1656508501.6593699</v>
+      </c>
+      <c r="C2">
+        <v>12.009191274642941</v>
       </c>
     </row>
   </sheetData>
@@ -555,45 +476,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1656508489.650179</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1656508500.80343</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.15325045585632</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656508489.6501789</v>
+      </c>
+      <c r="B2">
+        <v>1656508502.921653</v>
+      </c>
+      <c r="C2">
+        <v>13.27147364616394</v>
       </c>
     </row>
   </sheetData>
@@ -602,139 +511,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1656508489.650179</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1656508501.65937</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.00919127464294</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1656508489.650179</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1656508502.921653</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.27147364616394</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>EndTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1656508489.650179</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1656508505.161678</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.51149916648865</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656508489.6501789</v>
+      </c>
+      <c r="B2">
+        <v>1656508505.1616781</v>
+      </c>
+      <c r="C2">
+        <v>15.511499166488649</v>
       </c>
     </row>
   </sheetData>
